--- a/Документация/профиль_нагрузки.xlsx
+++ b/Документация/профиль_нагрузки.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" state="hidden" r:id="rId1"/>
@@ -32,26 +32,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="65">
   <si>
     <t>Вход в систему</t>
   </si>
   <si>
-    <t>Заполнение полей для поиска билета</t>
-  </si>
-  <si>
-    <t>Выбор рейса из найденных</t>
-  </si>
-  <si>
     <t>Оплата билета</t>
   </si>
   <si>
     <t>Просмотр квитанций</t>
   </si>
   <si>
-    <t>Отмена бронирования билета</t>
-  </si>
-  <si>
     <t>Выход из системы</t>
   </si>
   <si>
@@ -94,60 +85,9 @@
     <t>% отклонения</t>
   </si>
   <si>
-    <t>payment_details</t>
-  </si>
-  <si>
-    <t>Просмотр квитанции</t>
-  </si>
-  <si>
-    <t>Cancel_reservation</t>
-  </si>
-  <si>
-    <t>Check_ticket</t>
-  </si>
-  <si>
-    <t>fing_flight</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
-    <t>logout</t>
-  </si>
-  <si>
-    <t>select_ticket</t>
-  </si>
-  <si>
-    <t>Transaction Name</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <t>Поиск максимума 3 ступень</t>
-  </si>
-  <si>
-    <t>Подтверждение максимума</t>
-  </si>
-  <si>
-    <t>Профиль для 5 пользаков</t>
-  </si>
-  <si>
-    <t>1 315,</t>
-  </si>
-  <si>
-    <t>1 970,</t>
-  </si>
-  <si>
-    <t>1 675,</t>
-  </si>
-  <si>
     <t>Script name</t>
   </si>
   <si>
@@ -232,25 +172,61 @@
     <t>click_find_flight</t>
   </si>
   <si>
-    <t>click_flights</t>
-  </si>
-  <si>
     <t>click_itinerary</t>
   </si>
   <si>
     <t>click_sign_off</t>
   </si>
   <si>
-    <t>connect_to_server</t>
-  </si>
-  <si>
-    <t>Соответствие профилю</t>
-  </si>
-  <si>
     <t>Количество запросов одним пользователем в минуту</t>
   </si>
   <si>
     <t>click_book</t>
+  </si>
+  <si>
+    <t>Профиль для поиска максимума</t>
+  </si>
+  <si>
+    <t>Вторая ступень, нагрузка 400% от профиля, МАКСИМУМ</t>
+  </si>
+  <si>
+    <t>Первая ступень,  нагрузка 200% от профиля</t>
+  </si>
+  <si>
+    <t>Четвёртая ступень, нагрузка 800% от профиля</t>
+  </si>
+  <si>
+    <t>Пятая ступень, нагрузка 1000% от профиля</t>
+  </si>
+  <si>
+    <t>запросов в час</t>
+  </si>
+  <si>
+    <t>Операция</t>
+  </si>
+  <si>
+    <t>Профиль, Оп./ч</t>
+  </si>
+  <si>
+    <t>Факт., Оп./ч</t>
+  </si>
+  <si>
+    <t>операций в час</t>
+  </si>
+  <si>
+    <t>Ступень максимума, операции</t>
+  </si>
+  <si>
+    <t>Ступень пика, операции</t>
+  </si>
+  <si>
+    <t>Третья ступень, нагрузка 600% от профиля, ПИК</t>
+  </si>
+  <si>
+    <t>Соответствие профилю, отладочный сценарий</t>
+  </si>
+  <si>
+    <t>Подтверждение максимума, нагрузка 400% от профиля</t>
   </si>
 </sst>
 </file>
@@ -260,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,14 +319,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -494,7 +462,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,12 +646,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -958,58 +920,55 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1020,45 +979,24 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1081,39 +1019,89 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="45" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="45" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="45" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="45" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -1821,7 +1809,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1845,33 +1833,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1897,7 +1885,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1923,7 +1911,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1949,7 +1937,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1975,7 +1963,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -2025,33 +2013,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -2077,7 +2065,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -2103,7 +2091,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -2129,7 +2117,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -2155,7 +2143,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -2205,33 +2193,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -2257,7 +2245,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -2283,7 +2271,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -2309,7 +2297,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -2335,7 +2323,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -2371,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -2394,73 +2382,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" thickBot="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>58</v>
-      </c>
       <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
         <v>48</v>
       </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>51</v>
+      <c r="T1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="X1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -2468,7 +2456,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="13">
         <f t="shared" ref="D2:D23" si="0">VLOOKUP(A2,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -2476,55 +2464,55 @@
         <f>VLOOKUP(A2,$M$1:$W$8,5,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="12">
         <f>60/E2</f>
         <v>0.6</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="11">
         <f>D2*F2*G2</f>
         <v>36</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="6">
         <v>398</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="6"/>
       <c r="M2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="19">
+        <v>39</v>
+      </c>
+      <c r="N2" s="10">
         <v>2.7408999999999999</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="10">
         <v>20.001000000000001</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="10">
         <f>N2+O2</f>
         <v>22.741900000000001</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="9">
         <v>100</v>
       </c>
-      <c r="R2" s="18">
-        <v>1</v>
-      </c>
-      <c r="S2" s="19">
+      <c r="R2" s="9">
+        <v>1</v>
+      </c>
+      <c r="S2" s="10">
         <f>60/(Q2)</f>
         <v>0.6</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2" s="16">
         <v>20</v>
       </c>
-      <c r="U2" s="26">
+      <c r="U2" s="17">
         <f>ROUND(R2*S2*T2,0)</f>
         <v>12</v>
       </c>
-      <c r="V2" s="27">
+      <c r="V2" s="18">
         <f>R2/W$2</f>
         <v>0.1</v>
       </c>
@@ -2535,15 +2523,15 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2551,70 +2539,70 @@
         <f t="shared" ref="E3:E23" si="1">VLOOKUP(A3,$M$1:$W$8,5,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="12">
         <f t="shared" ref="F3:F23" si="2">60/E3</f>
         <v>0.6</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="11">
         <f t="shared" ref="H3:H23" si="3">D3*F3*G3</f>
         <v>36</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6">
         <v>262</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="6"/>
       <c r="M3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="19">
+        <v>42</v>
+      </c>
+      <c r="N3" s="10">
         <v>3.0865</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="10">
         <v>25.001200000000001</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="10">
         <f t="shared" ref="P3:P6" si="4">N3+O3</f>
         <v>28.087700000000002</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="9">
         <v>120</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="9">
         <v>3</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="10">
         <f t="shared" ref="S3:S6" si="5">60/(Q3)</f>
         <v>0.5</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="16">
         <v>20</v>
       </c>
-      <c r="U3" s="26">
+      <c r="U3" s="17">
         <f t="shared" ref="U3:U6" si="6">ROUND(R3*S3*T3,0)</f>
         <v>30</v>
       </c>
-      <c r="V3" s="27">
+      <c r="V3" s="18">
         <f t="shared" ref="V3:V6" si="7">R3/W$2</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2622,62 +2610,62 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="12">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="G4">
         <v>60</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="11">
         <f>D4*F4*G4</f>
         <v>36</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="15">
+      <c r="I4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="6">
         <v>398</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="6"/>
       <c r="M4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="19">
+        <v>2</v>
+      </c>
+      <c r="N4" s="10">
         <v>2.5522999999999998</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="10">
         <v>15.000500000000001</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="10">
         <f t="shared" si="4"/>
         <v>17.552800000000001</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="9">
         <v>72</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="9">
         <v>2</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="10">
         <f t="shared" si="5"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="16">
         <v>20</v>
       </c>
-      <c r="U4" s="26">
+      <c r="U4" s="17">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="V4" s="27">
+      <c r="V4" s="18">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -2685,7 +2673,7 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2693,70 +2681,70 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="12">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="G5">
         <v>60</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="11">
         <f>D5*F5*G5</f>
         <v>90</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="15">
+      <c r="I5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="6">
         <v>298</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="6"/>
       <c r="M5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="19">
+        <v>40</v>
+      </c>
+      <c r="N5" s="10">
         <v>3.3239000000000001</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="10">
         <v>30.001799999999999</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="10">
         <f t="shared" si="4"/>
         <v>33.325699999999998</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="9">
         <v>72</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="9">
         <v>2</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="10">
         <f t="shared" si="5"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T5" s="16">
         <v>20</v>
       </c>
-      <c r="U5" s="26">
+      <c r="U5" s="17">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="V5" s="27">
+      <c r="V5" s="18">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="14">
         <f>VLOOKUP(A6,$M$1:$W$8,6,FALSE)</f>
         <v>3</v>
       </c>
@@ -2764,70 +2752,70 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="12">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="G6">
         <v>60</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="11">
         <f>D6*F6*G6</f>
         <v>90</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="I6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
         <v>172</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="6"/>
       <c r="M6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="19">
+        <v>41</v>
+      </c>
+      <c r="N6" s="10">
         <v>4.899</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="10">
         <v>40.0017</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="10">
         <f t="shared" si="4"/>
         <v>44.900700000000001</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="9">
         <v>100</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="9">
         <v>2</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="10">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="T6" s="25">
+      <c r="T6" s="16">
         <v>20</v>
       </c>
-      <c r="U6" s="26">
+      <c r="U6" s="17">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="V6" s="27">
+      <c r="V6" s="18">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2835,45 +2823,45 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="12">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="G7">
         <v>60</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="11">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="15">
+      <c r="I7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="6">
         <v>172</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="26">
+      <c r="K7" s="6"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="17">
         <f>SUM(U2:U6)</f>
         <v>132</v>
       </c>
-      <c r="V7" s="27">
+      <c r="V7" s="18">
         <f>SUM(V2:V6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2881,29 +2869,29 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="12">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="G8">
         <v>60</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="11">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="15">
+      <c r="I8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="6">
         <v>72</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="K8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -2911,7 +2899,7 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2919,36 +2907,36 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="12">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G9">
         <v>60</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="11">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="15">
+      <c r="I9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="6">
         <v>1772</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2956,29 +2944,29 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="12">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G10">
         <v>60</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="11">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" thickBot="1">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2986,21 +2974,21 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="12">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G11">
         <v>60</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="11">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -3008,7 +2996,7 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3016,29 +3004,29 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="12">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G12">
         <v>60</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="11">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3046,29 +3034,29 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="12">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G13">
         <v>60</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="11">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3076,29 +3064,29 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="12">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G14">
         <v>60</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="11">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3106,29 +3094,29 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="12">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G15">
         <v>60</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="11">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3136,21 +3124,21 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="12">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G16">
         <v>60</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="11">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -3158,7 +3146,7 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3166,29 +3154,29 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="12">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="G17">
         <v>60</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="11">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3196,29 +3184,29 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="12">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="G18">
         <v>60</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="11">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3226,29 +3214,29 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="12">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="G19">
         <v>60</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="11">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="14">
         <f>VLOOKUP(A20,$M$1:$W$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3256,29 +3244,29 @@
         <f>VLOOKUP(A20,$M$1:$W$8,5,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="12">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="G20">
         <v>60</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="11">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3286,29 +3274,29 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="12">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="G21">
         <v>60</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="11">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3316,29 +3304,29 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="12">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="G22">
         <v>60</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="11">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3346,515 +3334,505 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="12">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="G23">
         <v>60</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="11">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1"/>
-    <row r="25" spans="1:10" ht="18.600000000000001" thickBot="1">
-      <c r="A25" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="43"/>
+    <row r="24" spans="1:11" ht="15" thickBot="1"/>
+    <row r="25" spans="1:11" ht="18.600000000000001" thickBot="1">
+      <c r="A25" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="56"/>
       <c r="G25" s="44"/>
-      <c r="I25" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="18.600000000000001" thickBot="1">
-      <c r="A26" s="30" t="s">
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.600000000000001" thickBot="1">
+      <c r="A26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="23">
         <v>422</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="25">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A26)</f>
         <v>398</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="26">
         <f>1-B26/C26</f>
         <v>-6.0301507537688481E-2</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="29">
         <f>C26/3</f>
         <v>132.66666666666666</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="29">
         <v>132</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="31">
         <f>1-E26/F26</f>
         <v>-5.050505050504972E-3</v>
       </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" s="55">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A27" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="34">
+      <c r="H26" s="38"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="59"/>
+    </row>
+    <row r="27" spans="1:11" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A27" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="24">
         <v>282</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="25">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A27)</f>
         <v>298</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="26">
         <f t="shared" ref="D27:D33" si="8">1-B27/C27</f>
         <v>5.3691275167785268E-2</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="29">
         <f t="shared" ref="E27:E32" si="9">C27/3</f>
         <v>99.333333333333329</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="29">
         <v>99</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="31">
         <f t="shared" ref="G27:G32" si="10">1-E27/F27</f>
         <v>-3.3670033670032407E-3</v>
       </c>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="55">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1">
-      <c r="A28" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="34">
+      <c r="H27" s="38"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="59"/>
+    </row>
+    <row r="28" spans="1:11" ht="18.600000000000001" thickBot="1">
+      <c r="A28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="24">
         <v>251</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="25">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A28)</f>
         <v>262</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="26">
         <f t="shared" si="8"/>
         <v>4.1984732824427495E-2</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="29">
         <f t="shared" si="9"/>
         <v>87.333333333333329</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="29">
         <v>87</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="31">
         <f t="shared" si="10"/>
         <v>-3.8314176245211051E-3</v>
       </c>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="55">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="18.600000000000001" thickBot="1">
-      <c r="A29" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="34">
+      <c r="H28" s="38"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="59"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.600000000000001" thickBot="1">
+      <c r="A29" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="24">
         <v>175</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="25">
         <f t="shared" ref="C29:C32" si="11">GETPIVOTDATA("Итого",$I$1,"transaction rq",A29)</f>
         <v>172</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="26">
         <f t="shared" si="8"/>
         <v>-1.744186046511631E-2</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="29">
         <f t="shared" si="9"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="29">
         <v>57</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="31">
         <f t="shared" si="10"/>
         <v>-5.8479532163742132E-3</v>
       </c>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="55">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="18.600000000000001" thickBot="1">
-      <c r="A30" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="34">
+      <c r="H29" s="38"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="59"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.600000000000001" thickBot="1">
+      <c r="A30" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="24">
         <v>159</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="25">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A30)</f>
         <v>172</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="26">
         <f t="shared" si="8"/>
         <v>7.5581395348837233E-2</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="29">
         <f t="shared" si="9"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="29">
         <v>57</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="31">
         <f t="shared" si="10"/>
         <v>-5.8479532163742132E-3</v>
       </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="J30" s="55">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="18.600000000000001" thickBot="1">
-      <c r="A31" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="34">
+      <c r="H30" s="38"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="59"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.600000000000001" thickBot="1">
+      <c r="A31" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="24">
         <v>73</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="25">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A31)</f>
         <v>72</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="26">
         <f t="shared" si="8"/>
         <v>-1.388888888888884E-2</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="29">
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="29">
         <v>24</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="J31" s="55">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="18.600000000000001" thickBot="1">
-      <c r="A32" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="34">
+      <c r="H31" s="38"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="59"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.600000000000001" thickBot="1">
+      <c r="A32" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="24">
         <v>422</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="25">
         <f t="shared" si="11"/>
         <v>398</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="26">
         <f t="shared" si="8"/>
         <v>-6.0301507537688481E-2</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="29">
         <f t="shared" si="9"/>
         <v>132.66666666666666</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="29">
         <v>132</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="31">
         <f t="shared" si="10"/>
         <v>-5.050505050504972E-3</v>
       </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" s="55">
-        <v>132</v>
-      </c>
+      <c r="H32" s="38"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1">
-      <c r="A33" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="34">
+      <c r="A33" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="24">
         <f>SUM(B26:B32)</f>
         <v>1784</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="27">
         <f>SUM(C26:C32)</f>
         <v>1772</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="26">
         <f t="shared" si="8"/>
         <v>-6.7720090293452717E-3</v>
       </c>
-      <c r="I33" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="J33" s="55">
-        <v>132</v>
-      </c>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="59"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="I34" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="55">
-        <v>132</v>
-      </c>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="59"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="F37" s="40"/>
+      <c r="F37" s="30"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="F38" s="40"/>
+      <c r="F38" s="30"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="F39" s="40"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
+      <c r="F39" s="30"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="F40" s="40"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
+      <c r="F40" s="30"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="F41" s="40"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
+      <c r="F41" s="30"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="F42" s="40"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
+      <c r="F42" s="30"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="H43" s="50"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="H44" s="50"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="H45" s="50"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="H46" s="50"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="H47" s="50"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="H48" s="50"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="H49" s="50"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="J51" s="47"/>
+      <c r="J51" s="35"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="J52" s="47"/>
+      <c r="J52" s="35"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="J53" s="47"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="45"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="45"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="48"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="36"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="45"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="45"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="45"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="45"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="45"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="45"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="48"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="36"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="E25:G25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
@@ -3862,10 +3840,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C9:O44"/>
+  <dimension ref="C6:T44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38:P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -3878,599 +3856,1156 @@
     <col min="8" max="8" width="15.109375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="11" max="11" width="1.44140625" customWidth="1"/>
-    <col min="12" max="12" width="40.33203125" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
     <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.21875" customWidth="1"/>
+    <col min="19" max="19" width="21.33203125" customWidth="1"/>
+    <col min="20" max="20" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:9">
-      <c r="E9" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-    </row>
-    <row r="11" spans="5:9" ht="27.6">
+    <row r="6" spans="5:20" ht="15" thickBot="1"/>
+    <row r="7" spans="5:20" ht="15" thickBot="1">
+      <c r="E7" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="9" spans="5:20">
+      <c r="E9" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="L9" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="R9" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+    </row>
+    <row r="11" spans="5:20" ht="28.2" thickBot="1">
       <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="L11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="T11" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="5:20" ht="18.600000000000001" thickBot="1">
+      <c r="E12" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9" ht="15.6">
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="3">
+        <f>398*2</f>
+        <v>796</v>
+      </c>
+      <c r="H12" s="2">
+        <f>268*3</f>
+        <v>804</v>
+      </c>
+      <c r="I12" s="4">
+        <f>1-G12/H12</f>
+        <v>9.9502487562188602E-3</v>
+      </c>
+      <c r="L12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="4">
-        <v>368</v>
-      </c>
-      <c r="H12" s="3">
-        <f>121*3</f>
-        <v>363</v>
-      </c>
-      <c r="I12" s="5">
-        <f>1-G12/H12</f>
-        <v>-1.377410468319562E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" ht="31.2">
-      <c r="E13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="4">
-        <v>251</v>
-      </c>
-      <c r="H13" s="3">
-        <f>82*3</f>
-        <v>246</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="M12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="3">
+        <f>398*4</f>
+        <v>1592</v>
+      </c>
+      <c r="O12" s="2">
+        <f>531*3</f>
+        <v>1593</v>
+      </c>
+      <c r="P12" s="4">
+        <f>1-N12/O12</f>
+        <v>6.2774639045826142E-4</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="49">
+        <f>36*4</f>
+        <v>144</v>
+      </c>
+      <c r="T12" s="37">
+        <f>48*3</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="5:20" ht="54.6" thickBot="1">
+      <c r="E13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3">
+        <f>298*2</f>
+        <v>596</v>
+      </c>
+      <c r="H13" s="2">
+        <f>199*3</f>
+        <v>597</v>
+      </c>
+      <c r="I13" s="4">
         <f t="shared" ref="I13:I18" si="0">1-G13/H13</f>
-        <v>-2.0325203252032464E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" ht="31.2">
-      <c r="E14" s="2" t="s">
+        <v>1.6750418760469454E-3</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="3">
+        <f>298*4</f>
+        <v>1192</v>
+      </c>
+      <c r="O13" s="2">
+        <f>398*3</f>
+        <v>1194</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" ref="P13:P18" si="1">1-N13/O13</f>
+        <v>1.6750418760469454E-3</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="39">
+        <f>90*4</f>
+        <v>360</v>
+      </c>
+      <c r="T13" s="37">
+        <f>120*3</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="5:20" ht="36.6" thickBot="1">
+      <c r="E14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="3">
+        <f>262*2</f>
+        <v>524</v>
+      </c>
+      <c r="H14" s="2">
+        <f>175*3</f>
+        <v>525</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9047619047618536E-3</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="3">
+        <f>262*4</f>
+        <v>1048</v>
+      </c>
+      <c r="O14" s="2">
+        <f>351*3</f>
+        <v>1053</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="1"/>
+        <v>4.7483380816714105E-3</v>
+      </c>
+      <c r="R14" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="4">
-        <v>251</v>
-      </c>
-      <c r="H14" s="3">
-        <f>82*3</f>
-        <v>246</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="S14" s="39">
+        <f>100*4</f>
+        <v>400</v>
+      </c>
+      <c r="T14" s="37">
+        <f>134*3</f>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="5:20" ht="18.600000000000001" thickBot="1">
+      <c r="E15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3">
+        <f>172*2</f>
+        <v>344</v>
+      </c>
+      <c r="H15" s="2">
+        <f>114*3</f>
+        <v>342</v>
+      </c>
+      <c r="I15" s="5">
         <f t="shared" si="0"/>
-        <v>-2.0325203252032464E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9" ht="15.6">
-      <c r="E15" s="2" t="s">
+        <v>-5.8479532163742132E-3</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="3">
+        <f>172*4</f>
+        <v>688</v>
+      </c>
+      <c r="O15" s="2">
+        <f>230*3</f>
+        <v>690</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8985507246376274E-3</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="39">
+        <f>100*4</f>
+        <v>400</v>
+      </c>
+      <c r="T15" s="37">
+        <f>133*3</f>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="5:20" ht="36.6" thickBot="1">
+      <c r="E16" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="3">
+        <f>172*2</f>
+        <v>344</v>
+      </c>
+      <c r="H16" s="3">
+        <f>116*3</f>
+        <v>348</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1494252873563204E-2</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="3">
+        <f>172*4</f>
+        <v>688</v>
+      </c>
+      <c r="O16" s="3">
+        <f>230*3</f>
+        <v>690</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8985507246376274E-3</v>
+      </c>
+      <c r="R16" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="39">
+        <f>72*4</f>
+        <v>288</v>
+      </c>
+      <c r="T16" s="37">
+        <f>93*3</f>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="5:20" ht="36.6" thickBot="1">
+      <c r="E17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="3">
+        <f>72*2</f>
+        <v>144</v>
+      </c>
+      <c r="H17" s="2">
+        <f>47*3</f>
+        <v>141</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.1276595744680771E-2</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="3">
+        <f>72*4</f>
+        <v>288</v>
+      </c>
+      <c r="O17" s="2">
+        <f>93*3</f>
+        <v>279</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.2258064516129004E-2</v>
+      </c>
+      <c r="R17" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="S17" s="39">
+        <f>SUM(S12:S16)</f>
+        <v>1592</v>
+      </c>
+      <c r="T17" s="37">
+        <f>SUM(T12:T16)</f>
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="18" spans="5:20" ht="36.6" thickBot="1">
+      <c r="E18" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="4">
-        <v>175</v>
-      </c>
-      <c r="H15" s="3">
-        <f>56*3</f>
-        <v>168</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="F18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="3">
+        <f>398*2</f>
+        <v>796</v>
+      </c>
+      <c r="H18" s="2">
+        <f>265*3</f>
+        <v>795</v>
+      </c>
+      <c r="I18" s="4">
         <f t="shared" si="0"/>
-        <v>-4.1666666666666741E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9" ht="31.2">
-      <c r="E16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="4">
-        <v>159</v>
-      </c>
-      <c r="H16" s="4">
-        <f>56*3</f>
-        <v>168</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>5.3571428571428603E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" ht="46.8">
-      <c r="E17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="4">
-        <v>73</v>
-      </c>
-      <c r="H17" s="3">
-        <f>25*3</f>
-        <v>75</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666616E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" ht="15.6">
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="4">
-        <v>326</v>
-      </c>
-      <c r="H18" s="3">
-        <f>104*3</f>
-        <v>312</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="0"/>
-        <v>-4.4871794871794934E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9">
-      <c r="E23" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-    </row>
-    <row r="25" spans="5:9">
-      <c r="E25" s="8" t="s">
+        <v>-1.2578616352201255E-3</v>
+      </c>
+      <c r="L18" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="53">
+        <f>398*4</f>
+        <v>1592</v>
+      </c>
+      <c r="O18" s="52">
+        <f>528*3</f>
+        <v>1584</v>
+      </c>
+      <c r="P18" s="54">
+        <f t="shared" si="1"/>
+        <v>-5.050505050504972E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:20" ht="18.600000000000001" thickBot="1">
+      <c r="L19" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37">
+        <f>SUM(N12:N18)</f>
+        <v>7088</v>
+      </c>
+      <c r="O19" s="37">
+        <f>SUM(O12:O18)</f>
+        <v>7083</v>
+      </c>
+      <c r="P19" s="37"/>
+    </row>
+    <row r="23" spans="5:20">
+      <c r="E23" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="L23" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="R23" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+    </row>
+    <row r="25" spans="5:20" ht="28.2" thickBot="1">
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="I25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="L25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R25" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="S25" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="T25" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="5:20" ht="18.600000000000001" thickBot="1">
+      <c r="E26" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" ht="15.6">
-      <c r="E26" s="13" t="s">
+      <c r="G26" s="3">
+        <f>398*6</f>
+        <v>2388</v>
+      </c>
+      <c r="H26" s="2">
+        <f>680*3</f>
+        <v>2040</v>
+      </c>
+      <c r="I26" s="4">
+        <f>1-G26/H26</f>
+        <v>-0.17058823529411771</v>
+      </c>
+      <c r="L26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="10">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H26" s="9">
-        <f>721*3</f>
-        <v>2163</v>
-      </c>
-      <c r="I26" s="11">
-        <f>1-G26/H26</f>
-        <v>0.14932963476652794</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" ht="15.6">
-      <c r="E27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H27" s="9">
-        <f>3*464</f>
-        <v>1392</v>
-      </c>
-      <c r="I27" s="11">
-        <f t="shared" ref="I27:I32" si="1">1-G27/H27</f>
-        <v>9.8419540229885083E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" ht="15.6">
-      <c r="E28" s="13" t="s">
+      <c r="M26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="3">
+        <f>398*8</f>
+        <v>3184</v>
+      </c>
+      <c r="O26" s="2">
+        <f>645*3</f>
+        <v>1935</v>
+      </c>
+      <c r="P26" s="4">
+        <f>1-N26/O26</f>
+        <v>-0.64547803617571065</v>
+      </c>
+      <c r="R26" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" s="49">
+        <f>36*6</f>
+        <v>216</v>
+      </c>
+      <c r="T26" s="37">
+        <f>72*3</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="5:20" ht="54.6" thickBot="1">
+      <c r="E27" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="3">
+        <f>298*6</f>
+        <v>1788</v>
+      </c>
+      <c r="H27" s="2">
+        <f>484*3</f>
+        <v>1452</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" ref="I27:I32" si="2">1-G27/H27</f>
+        <v>-0.23140495867768585</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="3">
+        <f>298*8</f>
+        <v>2384</v>
+      </c>
+      <c r="O27" s="2">
+        <f>485*3</f>
+        <v>1455</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" ref="P27:P32" si="3">1-N27/O27</f>
+        <v>-0.63848797250859102</v>
+      </c>
+      <c r="R27" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="S27" s="49">
+        <f>90*6</f>
+        <v>540</v>
+      </c>
+      <c r="T27" s="37">
+        <f>177*3</f>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="28" spans="5:20" ht="36.6" thickBot="1">
+      <c r="E28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="3">
+        <f>262*6</f>
+        <v>1572</v>
+      </c>
+      <c r="H28" s="2">
+        <f>413*3</f>
+        <v>1239</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.26876513317191275</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="3">
+        <f>262*6</f>
+        <v>1572</v>
+      </c>
+      <c r="O28" s="2">
+        <f>414*3</f>
+        <v>1242</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.26570048309178751</v>
+      </c>
+      <c r="R28" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H28" s="9">
-        <f>3*462</f>
-        <v>1386</v>
-      </c>
-      <c r="I28" s="11">
-        <f t="shared" si="1"/>
-        <v>9.4516594516594554E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" ht="15.6">
-      <c r="E29" s="13" t="s">
+      <c r="S28" s="49">
+        <f>100*6</f>
+        <v>600</v>
+      </c>
+      <c r="T28" s="37">
+        <f>193*3</f>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="29" spans="5:20" ht="18.600000000000001" thickBot="1">
+      <c r="E29" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="3">
+        <f>172*6</f>
+        <v>1032</v>
+      </c>
+      <c r="H29" s="2">
+        <f>233*3</f>
+        <v>699</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.4763948497854078</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" s="3">
+        <f>172*8</f>
+        <v>1376</v>
+      </c>
+      <c r="O29" s="2">
+        <f>207*3</f>
+        <v>621</v>
+      </c>
+      <c r="P29" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.2157809983896941</v>
+      </c>
+      <c r="R29" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S29" s="39">
+        <f>72*6</f>
+        <v>432</v>
+      </c>
+      <c r="T29" s="37">
+        <f>132*3</f>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="5:20" ht="36.6" thickBot="1">
+      <c r="E30" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="3">
+        <f>172*6</f>
+        <v>1032</v>
+      </c>
+      <c r="H30" s="3">
+        <f>297*3</f>
+        <v>891</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.15824915824915831</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" s="3">
+        <f>172*6</f>
+        <v>1032</v>
+      </c>
+      <c r="O30" s="3">
+        <f>252*3</f>
+        <v>756</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.36507936507936511</v>
+      </c>
+      <c r="R30" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="S30" s="39">
+        <f>72*6</f>
+        <v>432</v>
+      </c>
+      <c r="T30" s="37">
+        <f>99*3</f>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="5:20" ht="36.6" thickBot="1">
+      <c r="E31" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="3">
+        <f>72*6</f>
+        <v>432</v>
+      </c>
+      <c r="H31" s="2">
+        <f>99*3</f>
+        <v>297</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.45454545454545459</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" s="3">
+        <f>72*8</f>
+        <v>576</v>
+      </c>
+      <c r="O31" s="2">
+        <f>87*3</f>
+        <v>261</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.2068965517241379</v>
+      </c>
+      <c r="R31" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="S31" s="39">
+        <f>SUM(S26:S30)</f>
+        <v>2220</v>
+      </c>
+      <c r="T31" s="37">
+        <f>SUM(T26:T30)</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="32" spans="5:20" ht="36.6" thickBot="1">
+      <c r="E32" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="10">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H29" s="9">
-        <f>3*314</f>
-        <v>942</v>
-      </c>
-      <c r="I29" s="7">
-        <f t="shared" si="1"/>
-        <v>7.1125265392781301E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" ht="15.6">
-      <c r="E30" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="10">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H30" s="9">
-        <f>3*330</f>
-        <v>990</v>
-      </c>
-      <c r="I30" s="11">
-        <f t="shared" si="1"/>
-        <v>0.19696969696969702</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" ht="15.6">
-      <c r="E31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="10">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H31" s="9">
-        <f>3*141</f>
-        <v>423</v>
-      </c>
-      <c r="I31" s="11">
-        <f t="shared" si="1"/>
-        <v>0.13711583924349879</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" ht="15.6">
-      <c r="E32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="10">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H32" s="9">
-        <f>3*599</f>
-        <v>1797</v>
-      </c>
-      <c r="I32" s="11">
-        <f t="shared" si="1"/>
-        <v>9.2932665553700611E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15">
-      <c r="E35" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-    </row>
-    <row r="37" spans="5:15">
-      <c r="E37" s="8" t="s">
+      <c r="F32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="3">
+        <f>398*6</f>
+        <v>2388</v>
+      </c>
+      <c r="H32" s="2">
+        <f>673*3</f>
+        <v>2019</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.18276374442793464</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" s="3">
+        <f>398*8</f>
+        <v>3184</v>
+      </c>
+      <c r="O32" s="2">
+        <f>640*3</f>
+        <v>1920</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.65833333333333344</v>
+      </c>
+    </row>
+    <row r="33" spans="5:16" ht="18">
+      <c r="E33" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="45">
+        <f>SUM(H26:H32)</f>
+        <v>8637</v>
+      </c>
+    </row>
+    <row r="35" spans="5:16">
+      <c r="E35" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="L35" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+    </row>
+    <row r="37" spans="5:16" ht="28.2" thickBot="1">
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="I37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="L37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="5:16" ht="18.600000000000001" thickBot="1">
+      <c r="E38" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M37" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="5:15" ht="15.6">
-      <c r="E38" s="13" t="s">
+      <c r="G38" s="3">
+        <f>398*10</f>
+        <v>3980</v>
+      </c>
+      <c r="H38" s="2">
+        <f>676*3</f>
+        <v>2028</v>
+      </c>
+      <c r="I38" s="4">
+        <f>1-G38/H38</f>
+        <v>-0.96252465483234717</v>
+      </c>
+      <c r="L38" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="10">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H38" s="9">
-        <v>2109</v>
-      </c>
-      <c r="I38" s="11">
-        <f>1-G38/H38</f>
-        <v>0.12754860123281175</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M38" s="14">
-        <v>377</v>
-      </c>
-      <c r="N38" s="14">
-        <v>27</v>
-      </c>
-      <c r="O38" s="14">
+      <c r="M38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="3">
+        <f>398*4</f>
+        <v>1592</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1592</v>
+      </c>
+      <c r="P38" s="4">
+        <f>1-N38/O38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:15" ht="15.6">
-      <c r="E39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H39" s="14">
-        <v>1315</v>
-      </c>
-      <c r="I39" s="11">
-        <f t="shared" ref="I39:I44" si="2">1-G39/H39</f>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" s="14">
-        <v>998</v>
-      </c>
-      <c r="N39" s="14">
-        <v>1</v>
-      </c>
-      <c r="O39" s="14">
+    <row r="39" spans="5:16" ht="54.6" thickBot="1">
+      <c r="E39" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="3">
+        <f>298*10</f>
+        <v>2980</v>
+      </c>
+      <c r="H39" s="2">
+        <f>510*3</f>
+        <v>1530</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" ref="I39:I44" si="4">1-G39/H39</f>
+        <v>-0.94771241830065356</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N39" s="3">
+        <f>298*4</f>
+        <v>1192</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1192</v>
+      </c>
+      <c r="P39" s="4">
+        <f t="shared" ref="P39:P44" si="5">1-N39/O39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:15" ht="15.6">
-      <c r="E40" s="13" t="s">
+    <row r="40" spans="5:16" ht="36.6" thickBot="1">
+      <c r="E40" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="3">
+        <f>2620</f>
+        <v>2620</v>
+      </c>
+      <c r="H40" s="2">
+        <f>432*3</f>
+        <v>1296</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.0216049382716048</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N40" s="3">
+        <f>262*4</f>
+        <v>1048</v>
+      </c>
+      <c r="O40" s="2">
+        <v>1047</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="5"/>
+        <v>-9.5510983763125168E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="5:16" ht="18.600000000000001" thickBot="1">
+      <c r="E41" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="3">
+        <f>1720</f>
+        <v>1720</v>
+      </c>
+      <c r="H41" s="2">
+        <f>217*3</f>
+        <v>651</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.6420890937019967</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N41" s="3">
+        <f>172*4</f>
+        <v>688</v>
+      </c>
+      <c r="O41" s="2">
+        <v>687</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.4556040756914523E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="5:16" ht="36.6" thickBot="1">
+      <c r="E42" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H40" s="9">
-        <v>1315</v>
-      </c>
-      <c r="I40" s="11">
-        <f t="shared" si="2"/>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N40" s="14">
+      <c r="F42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="3">
+        <f>1720</f>
+        <v>1720</v>
+      </c>
+      <c r="H42" s="3">
+        <f>261*3</f>
+        <v>783</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.1966794380587484</v>
+      </c>
+      <c r="L42" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" s="3">
+        <f>172*4</f>
+        <v>688</v>
+      </c>
+      <c r="O42" s="3">
+        <v>688</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:15" ht="15.6">
-      <c r="E41" s="13" t="s">
+    </row>
+    <row r="43" spans="5:16" ht="36.6" thickBot="1">
+      <c r="E43" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="3">
+        <v>720</v>
+      </c>
+      <c r="H43" s="2">
+        <f>87*3</f>
+        <v>261</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.7586206896551726</v>
+      </c>
+      <c r="L43" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43" s="3">
+        <f>72*4</f>
+        <v>288</v>
+      </c>
+      <c r="O43" s="2">
+        <v>279</v>
+      </c>
+      <c r="P43" s="4">
+        <f t="shared" si="5"/>
+        <v>-3.2258064516129004E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="5:16" ht="36.6" thickBot="1">
+      <c r="E44" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="10">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H41" s="14">
-        <v>924</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" si="2"/>
-        <v>5.3030303030302983E-2</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N41" s="14">
-        <v>139</v>
-      </c>
-      <c r="O41" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:15" ht="15.6">
-      <c r="E42" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="10">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H42" s="14">
-        <v>998</v>
-      </c>
-      <c r="I42" s="11">
-        <f t="shared" si="2"/>
-        <v>0.20340681362725455</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N42" s="14">
-        <v>1</v>
-      </c>
-      <c r="O42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:15" ht="15.6">
-      <c r="E43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="10">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H43" s="14">
-        <v>404</v>
-      </c>
-      <c r="I43" s="11">
-        <f t="shared" si="2"/>
-        <v>9.6534653465346509E-2</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M43" s="14">
-        <v>924</v>
-      </c>
-      <c r="N43" s="14">
-        <v>0</v>
-      </c>
-      <c r="O43" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="5:15" ht="15.6">
-      <c r="E44" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="10">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H44" s="9">
-        <v>1675</v>
-      </c>
-      <c r="I44" s="11">
-        <f t="shared" si="2"/>
-        <v>2.68656716417911E-2</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N44" s="14">
-        <v>0</v>
-      </c>
-      <c r="O44" s="14">
-        <v>0</v>
+      <c r="F44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="3">
+        <f>3980</f>
+        <v>3980</v>
+      </c>
+      <c r="H44" s="2">
+        <f>663*3</f>
+        <v>1989</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.0010055304172951</v>
+      </c>
+      <c r="L44" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N44" s="3">
+        <f>398*4</f>
+        <v>1592</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1582</v>
+      </c>
+      <c r="P44" s="4">
+        <f t="shared" si="5"/>
+        <v>-6.321112515802696E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="L35:P35"/>
     <mergeCell ref="E23:I23"/>
     <mergeCell ref="E35:I35"/>
     <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="L23:P23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Документация/профиль_нагрузки.xlsx
+++ b/Документация/профиль_нагрузки.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" state="hidden" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="69">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -227,6 +227,18 @@
   </si>
   <si>
     <t>Подтверждение максимума, нагрузка 400% от профиля</t>
+  </si>
+  <si>
+    <t>Проверка количества ошибок</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -236,7 +248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +472,14 @@
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -965,7 +985,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1038,28 +1058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,9 +1083,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1100,9 +1096,55 @@
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="45" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="3" xfId="44" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1433,7 +1475,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -1809,7 +1851,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2359,7 +2401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -3348,22 +3390,22 @@
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1"/>
     <row r="25" spans="1:11" ht="18.600000000000001" thickBot="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="44"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="32"/>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="44"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="59"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="57"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
     </row>
     <row r="26" spans="1:11" ht="18.600000000000001" thickBot="1">
       <c r="A26" s="20" t="s">
@@ -3392,9 +3434,9 @@
         <v>-5.050505050504972E-3</v>
       </c>
       <c r="H26" s="38"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="51"/>
     </row>
     <row r="27" spans="1:11" ht="17.399999999999999" customHeight="1" thickBot="1">
       <c r="A27" s="21" t="s">
@@ -3423,9 +3465,9 @@
         <v>-3.3670033670032407E-3</v>
       </c>
       <c r="H27" s="38"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="59"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="51"/>
     </row>
     <row r="28" spans="1:11" ht="18.600000000000001" thickBot="1">
       <c r="A28" s="21" t="s">
@@ -3454,9 +3496,9 @@
         <v>-3.8314176245211051E-3</v>
       </c>
       <c r="H28" s="38"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="59"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="51"/>
     </row>
     <row r="29" spans="1:11" ht="18.600000000000001" thickBot="1">
       <c r="A29" s="21" t="s">
@@ -3485,9 +3527,9 @@
         <v>-5.8479532163742132E-3</v>
       </c>
       <c r="H29" s="38"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="59"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="51"/>
     </row>
     <row r="30" spans="1:11" ht="18.600000000000001" thickBot="1">
       <c r="A30" s="21" t="s">
@@ -3516,9 +3558,9 @@
         <v>-5.8479532163742132E-3</v>
       </c>
       <c r="H30" s="38"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="59"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="51"/>
     </row>
     <row r="31" spans="1:11" ht="18.600000000000001" thickBot="1">
       <c r="A31" s="21" t="s">
@@ -3547,9 +3589,9 @@
         <v>0</v>
       </c>
       <c r="H31" s="38"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="59"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="51"/>
     </row>
     <row r="32" spans="1:11" ht="18.600000000000001" thickBot="1">
       <c r="A32" s="21" t="s">
@@ -3578,9 +3620,9 @@
         <v>-5.050505050504972E-3</v>
       </c>
       <c r="H32" s="38"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="59"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="51"/>
     </row>
     <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A33" s="22" t="s">
@@ -3598,136 +3640,136 @@
         <f t="shared" si="8"/>
         <v>-6.7720090293452717E-3</v>
       </c>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="59"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="51"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="59"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="51"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
     </row>
     <row r="37" spans="1:13">
       <c r="F37" s="30"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
     </row>
     <row r="38" spans="1:13">
       <c r="F38" s="30"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
     </row>
     <row r="39" spans="1:13">
       <c r="F39" s="30"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
     </row>
     <row r="40" spans="1:13">
       <c r="F40" s="30"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
     </row>
     <row r="41" spans="1:13">
       <c r="F41" s="30"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
     </row>
     <row r="42" spans="1:13">
       <c r="F42" s="30"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="61"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="H43" s="59"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="H44" s="59"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="H45" s="59"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="H46" s="59"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="H47" s="59"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="H48" s="59"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="H49" s="59"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
     </row>
     <row r="51" spans="1:13">
       <c r="J51" s="35"/>
@@ -3840,10 +3882,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C6:T44"/>
+  <dimension ref="C6:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38:P44"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -3869,34 +3911,34 @@
   <sheetData>
     <row r="6" spans="5:20" ht="15" thickBot="1"/>
     <row r="7" spans="5:20" ht="15" thickBot="1">
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
     </row>
     <row r="9" spans="5:20">
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="L9" s="46" t="s">
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="L9" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="R9" s="46" t="s">
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="R9" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
     </row>
     <row r="11" spans="5:20" ht="28.2" thickBot="1">
       <c r="E11" s="1" t="s">
@@ -3929,10 +3971,10 @@
       <c r="P11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="49" t="s">
+      <c r="R11" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="50" t="s">
+      <c r="S11" s="43" t="s">
         <v>57</v>
       </c>
       <c r="T11" s="37" t="s">
@@ -3979,7 +4021,7 @@
       <c r="R12" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="S12" s="49">
+      <c r="S12" s="42">
         <f>36*4</f>
         <v>144</v>
       </c>
@@ -4221,7 +4263,7 @@
         <f t="shared" si="1"/>
         <v>-3.2258064516129004E-2</v>
       </c>
-      <c r="R17" s="49" t="s">
+      <c r="R17" s="42" t="s">
         <v>59</v>
       </c>
       <c r="S17" s="39">
@@ -4252,27 +4294,27 @@
         <f t="shared" si="0"/>
         <v>-1.2578616352201255E-3</v>
       </c>
-      <c r="L18" s="51" t="s">
+      <c r="L18" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="M18" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="53">
+      <c r="N18" s="46">
         <f>398*4</f>
         <v>1592</v>
       </c>
-      <c r="O18" s="52">
+      <c r="O18" s="45">
         <f>528*3</f>
         <v>1584</v>
       </c>
-      <c r="P18" s="54">
+      <c r="P18" s="47">
         <f t="shared" si="1"/>
         <v>-5.050505050504972E-3</v>
       </c>
     </row>
     <row r="19" spans="5:20" ht="18.600000000000001" thickBot="1">
-      <c r="L19" s="55" t="s">
+      <c r="L19" s="48" t="s">
         <v>55</v>
       </c>
       <c r="M19" s="37"/>
@@ -4287,25 +4329,25 @@
       <c r="P19" s="37"/>
     </row>
     <row r="23" spans="5:20">
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="L23" s="47" t="s">
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="L23" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="R23" s="46" t="s">
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="R23" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
     </row>
     <row r="25" spans="5:20" ht="28.2" thickBot="1">
       <c r="E25" s="1" t="s">
@@ -4338,10 +4380,10 @@
       <c r="P25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R25" s="49" t="s">
+      <c r="R25" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="S25" s="50" t="s">
+      <c r="S25" s="43" t="s">
         <v>57</v>
       </c>
       <c r="T25" s="37" t="s">
@@ -4388,7 +4430,7 @@
       <c r="R26" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="S26" s="49">
+      <c r="S26" s="42">
         <f>36*6</f>
         <v>216</v>
       </c>
@@ -4437,7 +4479,7 @@
       <c r="R27" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="S27" s="49">
+      <c r="S27" s="42">
         <f>90*6</f>
         <v>540</v>
       </c>
@@ -4486,7 +4528,7 @@
       <c r="R28" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="S28" s="49">
+      <c r="S28" s="42">
         <f>100*6</f>
         <v>600</v>
       </c>
@@ -4630,7 +4672,7 @@
         <f t="shared" si="3"/>
         <v>-1.2068965517241379</v>
       </c>
-      <c r="R31" s="49" t="s">
+      <c r="R31" s="42" t="s">
         <v>59</v>
       </c>
       <c r="S31" s="39">
@@ -4681,29 +4723,29 @@
       </c>
     </row>
     <row r="33" spans="5:16" ht="18">
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="40">
         <f>SUM(H26:H32)</f>
         <v>8637</v>
       </c>
     </row>
     <row r="35" spans="5:16">
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="L35" s="64" t="s">
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="L35" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
     </row>
     <row r="37" spans="5:16" ht="28.2" thickBot="1">
       <c r="E37" s="1" t="s">
@@ -4995,19 +5037,202 @@
         <v>-6.321112515802696E-3</v>
       </c>
     </row>
+    <row r="49" spans="5:9">
+      <c r="E49" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+    </row>
+    <row r="50" spans="5:9">
+      <c r="E50" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+    </row>
+    <row r="51" spans="5:9">
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+    </row>
+    <row r="52" spans="5:9" ht="17.399999999999999">
+      <c r="E52" s="70"/>
+      <c r="F52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I52" s="68"/>
+    </row>
+    <row r="53" spans="5:9">
+      <c r="E53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="2">
+        <v>47</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="72">
+        <f>G53/SUM(F53,G53)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I53" s="68"/>
+    </row>
+    <row r="54" spans="5:9" ht="18">
+      <c r="E54" s="66"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="68"/>
+    </row>
+    <row r="55" spans="5:9">
+      <c r="E55" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+    </row>
+    <row r="56" spans="5:9" ht="18">
+      <c r="E56" s="66"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="68"/>
+    </row>
+    <row r="57" spans="5:9" ht="17.399999999999999">
+      <c r="E57" s="70"/>
+      <c r="F57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I57" s="68"/>
+    </row>
+    <row r="58" spans="5:9">
+      <c r="E58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="2">
+        <v>93</v>
+      </c>
+      <c r="G58" s="2">
+        <v>3</v>
+      </c>
+      <c r="H58" s="72">
+        <f>G58/SUM(F58,G58)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I58" s="68"/>
+    </row>
+    <row r="61" spans="5:9">
+      <c r="E61" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+    </row>
+    <row r="63" spans="5:9" ht="17.399999999999999">
+      <c r="E63" s="70"/>
+      <c r="F63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" s="71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="5:9">
+      <c r="E64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="2">
+        <v>99</v>
+      </c>
+      <c r="G64" s="2">
+        <v>4</v>
+      </c>
+      <c r="H64" s="72">
+        <f>G64/SUM(F64,G64)</f>
+        <v>3.8834951456310676E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9">
+      <c r="E66" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+    </row>
+    <row r="68" spans="5:9" ht="17.399999999999999">
+      <c r="E68" s="70"/>
+      <c r="F68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H68" s="71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9">
+      <c r="E69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" s="2">
+        <v>279</v>
+      </c>
+      <c r="G69" s="2">
+        <v>9</v>
+      </c>
+      <c r="H69" s="72">
+        <f>G69/SUM(F69,G69)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="14">
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="E50:I50"/>
     <mergeCell ref="R9:T9"/>
     <mergeCell ref="R23:T23"/>
     <mergeCell ref="L35:P35"/>
     <mergeCell ref="E23:I23"/>
     <mergeCell ref="E35:I35"/>
     <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="L23:P23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>